--- a/Question_Set2/Programming skills/NumPy.xlsx
+++ b/Question_Set2/Programming skills/NumPy.xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You want to create a NumPy array of shape of (3,4) filled with 0s. Which version of the code below accomplishes this?', 'ques_type': 2, 'options': ['numpy.zeros([3, 4])', 'numpy.arange((3,4), 0)', 'numpy.random.randint((0, 0), (3, 4))', 'numpy.fill(0, [3, 4])'], 'score': 'numpy.zeros([3, 4])'}, {'title': 'You want to multiply all the numbers in your NumPy array “arr” by 2. Which version of the code below accomplishes this?', 'ques_type': 2, 'options': ['arr *= numpy.eye(2)', 'arr *= numpy.arange(2)', 'arr *= 2', 'arr *= numpy.twoes((arr.shape[0], arr.shape[1]))'], 'score': 'arr *= 2'}, {'title': 'You want to replace the missing values in your NumPy array “arr” with 0s. Which version of the code accomplishes this?', 'ques_type': 2, 'options': ['arr = arr.replace(numpy.nan, 0)', 'arr = numpy.fillna(arr, 0)', 'arr = arr.nan_to_num(0)', 'arr = numpy.nan_to_num(arr)'], 'score': 'arr = numpy.nan_to_num(arr)'}, {'title': 'True or false: The values in the NumPy array below are all the same data type. numpy.array([1, 2.0, “a”, 45, “hello”])', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'True'}]</t>
+    <t>questions = [
+    {
+        "title": "You want to create a NumPy array of shape of (3,4) filled with 0s. Which version of the code below accomplishes this?",
+        "ques_type": 2,
+        "options": [
+            "numpy.zeros([3, 4])",
+            "numpy.arange((3,4), 0)",
+            "numpy.random.randint((0, 0), (3, 4))",
+            "numpy.fill(0, [3, 4])"
+        ],
+        "score": "numpy.zeros([3, 4])"
+    },
+    {
+        "title": "You want to multiply all the numbers in your NumPy array \u201carr\u201d by 2. Which version of the code below accomplishes this?",
+        "ques_type": 2,
+        "options": [
+            "arr *= numpy.eye(2)",
+            "arr *= numpy.arange(2)",
+            "arr *= 2",
+            "arr *= numpy.twoes((arr.shape[0], arr.shape[1]))"
+        ],
+        "score": "arr *= 2"
+    },
+    {
+        "title": "You want to replace the missing values in your NumPy array \u201carr\u201d with 0s. Which version of the code accomplishes this?",
+        "ques_type": 2,
+        "options": [
+            "arr = arr.replace(numpy.nan, 0)",
+            "arr = numpy.fillna(arr, 0)",
+            "arr = arr.nan_to_num(0)",
+            "arr = numpy.nan_to_num(arr)"
+        ],
+        "score": "arr = numpy.nan_to_num(arr)"
+    },
+    {
+        "title": "True or false: The values in the NumPy array below are all the same data type. numpy.array([1, 2.0, \u201ca\u201d, 45, \u201chello\u201d])",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "True"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
